--- a/documents/Benchmarks.xlsx
+++ b/documents/Benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yann-PC\Documents\GitHub\AI-Project-1\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7538228A-5923-4F7B-8A95-8A6AF80E0A1B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AE8F5C-3716-4073-B4D5-2FC15BA11B94}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5580" xr2:uid="{B2B70009-8ADC-4B59-8DE1-D27828062BB7}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="19">
   <si>
     <t>h1</t>
   </si>
@@ -85,6 +85,9 @@
   <si>
     <t>AVERAGE REDUIT</t>
   </si>
+  <si>
+    <t>AVG h</t>
+  </si>
 </sst>
 </file>
 
@@ -115,7 +118,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,6 +128,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -141,7 +150,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -154,6 +163,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,6 +179,1102 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>neighbours</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Feuil1!$C$26,Feuil1!$J$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.623333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-872E-4EFF-95B4-FFFDEF486C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Manhattan (diagonals)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Feuil1!$D$26,Feuil1!$K$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5999999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-872E-4EFF-95B4-FFFDEF486C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Hamming</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Feuil1!$E$26,Feuil1!$L$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5883333333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-872E-4EFF-95B4-FFFDEF486C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Manhattan</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Feuil1!$F$26,Feuil1!$M$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>6.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-872E-4EFF-95B4-FFFDEF486C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Permutations</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Feuil1!$G$26,Feuil1!$N$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4983333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-872E-4EFF-95B4-FFFDEF486C1A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="542357920"/>
+        <c:axId val="542356936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="542357920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Time (in ms) &amp; number of moves of Heuristics </a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR" sz="800">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="542356936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="542356936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="21"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="542357920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Graphique 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FC36269-905E-469F-9305-720DA1A74F7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -468,10 +1574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E0151F-B2C7-4DAE-8B70-F2F47C1A0E83}">
-  <dimension ref="B1:P24"/>
+  <dimension ref="B1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,7 +1928,7 @@
         <v>6.666666666666667</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="D11:G11" si="2">AVERAGE(E4:E5,E7)</f>
+        <f t="shared" ref="E11:G11" si="2">AVERAGE(E4:E5,E7)</f>
         <v>6.666666666666667</v>
       </c>
       <c r="F11">
@@ -1170,8 +2276,58 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="6">
+        <f>AVERAGE(C11,C23)</f>
+        <v>7</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" ref="D26:G26" si="6">AVERAGE(D11,D23)</f>
+        <v>6</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="6"/>
+        <v>6.333333333333333</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="6">
+        <f>AVERAGE(J11,J23)</f>
+        <v>19.623333333333335</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" ref="K26:N26" si="7">AVERAGE(K11,K23)</f>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="7"/>
+        <v>2.5883333333333334</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="7"/>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" si="7"/>
+        <v>2.4983333333333331</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>